--- a/formats/excel/SSR/2019/Formats RHA 19.xlsx
+++ b/formats/excel/SSR/2019/Formats RHA 19.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10919935\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24240" windowHeight="12855" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="129">
   <si>
     <t>libelle</t>
   </si>
@@ -286,9 +291,6 @@
     <t>Journées hors week-end</t>
   </si>
   <si>
-    <t>JOURNESS_HWE</t>
-  </si>
-  <si>
     <t>Journées week-end</t>
   </si>
   <si>
@@ -401,19 +403,16 @@
   </si>
   <si>
     <t>ZAD</t>
+  </si>
+  <si>
+    <t>JOURNEES_HWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,353 +427,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -782,308 +444,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1092,7 +473,7 @@
   <a:themeElements>
     <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1344,22 +725,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="45.8733333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.8733333333333" customWidth="1"/>
+    <col min="1" max="1" width="45.875" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1450,7 +829,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F63" si="0">C4+D4-D5</f>
+        <f t="shared" ref="F4:F62" si="0">C4+D4-D5</f>
         <v>0</v>
       </c>
       <c r="G4" t="s">
@@ -1889,7 +1268,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>50</v>
       </c>
@@ -2371,7 +1750,7 @@
         <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -2392,10 +1771,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -2416,10 +1795,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
         <v>93</v>
-      </c>
-      <c r="B45" t="s">
-        <v>94</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -2440,10 +1819,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
         <v>95</v>
-      </c>
-      <c r="B46" t="s">
-        <v>96</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -2464,10 +1843,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
         <v>97</v>
-      </c>
-      <c r="B47" t="s">
-        <v>98</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -2488,10 +1867,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
         <v>99</v>
-      </c>
-      <c r="B48" t="s">
-        <v>100</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -2512,10 +1891,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>102</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2536,10 +1915,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>104</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -2560,10 +1939,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2584,10 +1963,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
         <v>107</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2608,10 +1987,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
         <v>109</v>
-      </c>
-      <c r="B53" t="s">
-        <v>110</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2632,10 +2011,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
         <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2656,10 +2035,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
         <v>113</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -2680,10 +2059,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
         <v>115</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -2704,10 +2083,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
         <v>117</v>
-      </c>
-      <c r="B57" t="s">
-        <v>118</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -2728,10 +2107,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
         <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>120</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2750,9 +2129,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="1:7">
       <c r="B59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2773,10 +2152,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
         <v>122</v>
-      </c>
-      <c r="B60" t="s">
-        <v>123</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -2797,10 +2176,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
         <v>124</v>
-      </c>
-      <c r="B61" t="s">
-        <v>125</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -2821,10 +2200,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
         <v>126</v>
-      </c>
-      <c r="B62" t="s">
-        <v>127</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -2843,9 +2222,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="1:7">
       <c r="B63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63">
         <v>175</v>
@@ -2856,7 +2235,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>